--- a/Data correct/Landcover.xlsx
+++ b/Data correct/Landcover.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/535388_umons_ac_be/Documents/R folders/Habitats/Data correct/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E130DC08-ADB1-438F-822F-9EB4C9BAE82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E130DC08-ADB1-438F-822F-9EB4C9BAE82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6627653-677C-4815-9123-66197BCFAA58}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Cimetière d'Havré</t>
-  </si>
-  <si>
-    <t>Culture  de bouleaux</t>
   </si>
   <si>
     <t>Eglise Saint Martin d'Harveng</t>
@@ -338,9 +335,6 @@
     <t>Terril du Grand Buisson</t>
   </si>
   <si>
-    <t>Terril du Quesnoy  site 2</t>
-  </si>
-  <si>
     <t>Terril du Quesnoy site 1</t>
   </si>
   <si>
@@ -405,6 +399,12 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>Culture de bouleaux</t>
+  </si>
+  <si>
+    <t>Terril du Quesnoy site 2</t>
   </si>
 </sst>
 </file>
@@ -755,11 +755,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
@@ -767,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1">
         <v>2.7050000000000001</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>21.074000000000002</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>52.301000000000002</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>7.3860000000000001</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>5.9859999999999998</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>42.143000000000001</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1">
         <v>6.3689999999999998</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>20.998999999999999</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>67.989999999999995</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1">
         <v>23.489000000000001</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1">
         <v>60.164999999999999</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
         <v>9.9949999999999992</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>2.423</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1">
         <v>5.4180000000000001</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>4.8979999999999997</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
         <v>12.916</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1">
         <v>3.246</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1">
         <v>9.9209999999999994</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1">
         <v>1.179</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1">
         <v>5.7140000000000004</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
         <v>5.6150000000000002</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <v>2.008</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>6.9370000000000003</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1">
         <v>9.343</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>2.6669999999999998</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1">
         <v>24.491</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1">
         <v>29.584</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>11.411</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1">
         <v>4.915</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
         <v>30.971</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
         <v>39.115000000000002</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1">
         <v>15.154</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1">
         <v>75.894999999999996</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>1.1499999999999999</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1">
         <v>0.59599999999999997</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <v>0.59899999999999998</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>0.69599999999999995</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1">
         <v>6.0039999999999996</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1">
         <v>1.216</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>7.3810000000000002</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1">
         <v>35.701999999999998</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1">
         <v>24.709</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1">
         <v>29.666</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>2.508</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1">
         <v>17.242999999999999</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>24.442</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1">
         <v>14.545999999999999</v>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1">
         <v>32.216000000000001</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1">
         <v>71.760999999999996</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>71.914000000000001</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>2.3370000000000002</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1">
         <v>36.18</v>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>7.085</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>11.262</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>10.509</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1">
         <v>14.938000000000001</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1">
         <v>14.242000000000001</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1">
         <v>16.683</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1">
         <v>16.692</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1">
         <v>5.6440000000000001</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1">
         <v>0.874</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1">
         <v>10.929</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1">
         <v>14.472</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1">
         <v>14.443</v>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1">
         <v>1.851</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1">
         <v>10.878</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1">
         <v>17.547999999999998</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1">
         <v>9.6159999999999997</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1">
         <v>12.506</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1">
         <v>7.7859999999999996</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="1">
         <v>10.063000000000001</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1">
         <v>17.800999999999998</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1">
         <v>15.58</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1">
         <v>14.833</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1">
         <v>11.163</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1">
         <v>9.0459999999999994</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104" s="1">
         <v>32.124000000000002</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1">
         <v>14.755000000000001</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1">
         <v>20.731999999999999</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1">
         <v>4.1470000000000002</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1">
         <v>4.734</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1">
         <v>2.1749999999999998</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1">
         <v>5.16</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1">
         <v>49.662999999999997</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1">
         <v>14.366</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1">
         <v>54.701000000000001</v>
@@ -4730,18 +4730,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAD8FC5-B338-4211-8882-75DB9EF12D84}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1">
         <v>4.0789999999999997</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>12.497</v>
@@ -5756,7 +5756,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>49.417000000000002</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>18.452000000000002</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>11.097</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>24.271000000000001</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1">
         <v>4.6929999999999996</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>16.062999999999999</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>65.911000000000001</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1">
         <v>22.526</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1">
         <v>60.014000000000003</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
         <v>14.382999999999999</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>1.792</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1">
         <v>16.576000000000001</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>4.7469999999999999</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
         <v>13.086</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1">
         <v>6.5069999999999997</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1">
         <v>17.652000000000001</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1">
         <v>1.1599999999999999</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1">
         <v>5.9219999999999997</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
         <v>5.4169999999999998</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <v>5.2939999999999996</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>6.0949999999999998</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1">
         <v>8.4109999999999996</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>7.2320000000000002</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1">
         <v>27.396000000000001</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1">
         <v>28.521999999999998</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>18.712</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1">
         <v>8.0050000000000008</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
         <v>23.782</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
         <v>50.752000000000002</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1">
         <v>16.669</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1">
         <v>70.346999999999994</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>2.2879999999999998</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1">
         <v>1.766</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <v>0.64600000000000002</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>1.673</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1">
         <v>4.9669999999999996</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1">
         <v>4.7590000000000003</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>13.884</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1">
         <v>21.742999999999999</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1">
         <v>21.402000000000001</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1">
         <v>34.515000000000001</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>5.0149999999999997</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1">
         <v>20.994</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>25.696999999999999</v>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1">
         <v>14.65</v>
@@ -7331,7 +7331,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1">
         <v>27.742000000000001</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1">
         <v>80.762</v>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>67.296999999999997</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>2.6880000000000002</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1">
         <v>38.590000000000003</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>11.362</v>
@@ -7541,7 +7541,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>21.327999999999999</v>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>17.364000000000001</v>
@@ -7611,7 +7611,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1">
         <v>11.839</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1">
         <v>12.351000000000001</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1">
         <v>22.431999999999999</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1">
         <v>24.228000000000002</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1">
         <v>9.6590000000000007</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1">
         <v>0.53200000000000003</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1">
         <v>11.206</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1">
         <v>10.504</v>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1">
         <v>11.273</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1">
         <v>7.6059999999999999</v>
@@ -7961,7 +7961,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1">
         <v>10.542</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1">
         <v>13.273</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1">
         <v>11.611000000000001</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1">
         <v>20.192</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1">
         <v>12.365</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="1">
         <v>10.25</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1">
         <v>42.238999999999997</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1">
         <v>23.334</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1">
         <v>22.661999999999999</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1">
         <v>35.872</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1">
         <v>34.54</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104" s="1">
         <v>19.035</v>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1">
         <v>17.015999999999998</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1">
         <v>17.579999999999998</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1">
         <v>2.2229999999999999</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1">
         <v>2.9529999999999998</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1">
         <v>2.948</v>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1">
         <v>4.835</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1">
         <v>51.32</v>
@@ -8626,7 +8626,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1">
         <v>17.41</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1">
         <v>52.820999999999998</v>
@@ -8703,18 +8703,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731ACA6B-0790-45D0-91B6-6A4C441861C5}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1">
         <v>7.7069999999999999</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>5.165</v>
@@ -9729,7 +9729,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <v>48.05</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>23.568999999999999</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
         <v>14.009</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1">
         <v>16.811</v>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1">
         <v>11.62</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1">
         <v>16.355</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1">
         <v>55.610999999999997</v>
@@ -9974,7 +9974,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1">
         <v>18.39</v>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1">
         <v>56.875999999999998</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
         <v>9.5039999999999996</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>2.5470000000000002</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1">
         <v>16.954999999999998</v>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>7.3520000000000003</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1">
         <v>18.745000000000001</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1">
         <v>7.3440000000000003</v>
@@ -10254,7 +10254,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1">
         <v>13.449</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1">
         <v>3.11</v>
@@ -10324,7 +10324,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1">
         <v>9.2319999999999993</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1">
         <v>5.9349999999999996</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1">
         <v>6.6429999999999998</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>6.5910000000000002</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1">
         <v>9.8390000000000004</v>
@@ -10499,7 +10499,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>9.907</v>
@@ -10534,7 +10534,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1">
         <v>24.704000000000001</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1">
         <v>27.738</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1">
         <v>22.989000000000001</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1">
         <v>11.031000000000001</v>
@@ -10674,7 +10674,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1">
         <v>16.893999999999998</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1">
         <v>45.908999999999999</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1">
         <v>12.391</v>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1">
         <v>63.759</v>
@@ -10814,7 +10814,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>4.4960000000000004</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1">
         <v>4.1369999999999996</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1">
         <v>0.82699999999999996</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1">
         <v>4.0199999999999996</v>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1">
         <v>3.4950000000000001</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1">
         <v>4.25</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1">
         <v>24.135000000000002</v>
@@ -11059,7 +11059,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1">
         <v>18.085000000000001</v>
@@ -11094,7 +11094,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1">
         <v>15.462999999999999</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1">
         <v>35.874000000000002</v>
@@ -11164,7 +11164,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>7.18</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1">
         <v>12.974</v>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>27.968</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="1">
         <v>13.468</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" s="1">
         <v>28.387</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1">
         <v>68</v>
@@ -11374,7 +11374,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>62.539000000000001</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>3.2530000000000001</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1">
         <v>42.530999999999999</v>
@@ -11479,7 +11479,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>9.9290000000000003</v>
@@ -11514,7 +11514,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1">
         <v>26.138999999999999</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>17.672000000000001</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1">
         <v>9.391</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1">
         <v>8.7530000000000001</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1">
         <v>18.141999999999999</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1">
         <v>19.558</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1">
         <v>23.856000000000002</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1">
         <v>2.532</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1">
         <v>15.228</v>
@@ -11829,7 +11829,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1">
         <v>9.9380000000000006</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1">
         <v>11.837999999999999</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B92" s="1">
         <v>8.9030000000000005</v>
@@ -11934,7 +11934,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1">
         <v>11.276999999999999</v>
@@ -11969,7 +11969,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1">
         <v>13.218</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1">
         <v>14.295</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1">
         <v>17.248999999999999</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1">
         <v>10.933</v>
@@ -12109,7 +12109,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B98" s="1">
         <v>12.682</v>
@@ -12144,7 +12144,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1">
         <v>36.637</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B100" s="1">
         <v>27.353000000000002</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="1">
         <v>25.821000000000002</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1">
         <v>39.113999999999997</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103" s="1">
         <v>38.33</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B104" s="1">
         <v>16.206</v>
@@ -12354,7 +12354,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1">
         <v>20.824999999999999</v>
@@ -12389,7 +12389,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1">
         <v>12.244</v>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1">
         <v>14.186999999999999</v>
@@ -12459,7 +12459,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1">
         <v>5.9779999999999998</v>
@@ -12494,7 +12494,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1">
         <v>6.1559999999999997</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1">
         <v>5.681</v>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1">
         <v>46.826000000000001</v>
@@ -12599,7 +12599,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1">
         <v>17.93</v>
@@ -12634,7 +12634,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1">
         <v>45.948</v>
